--- a/Sample/PMS.xlsx
+++ b/Sample/PMS.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien.mousqueton@cohesity.com/Code/Murail/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993FBD6-7DB0-D945-898A-4E5965748DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D6C1E-F7B4-734B-83C9-284DFD44DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tweets" sheetId="1" r:id="rId1"/>
+    <sheet name="Bruit" sheetId="2" r:id="rId2"/>
+    <sheet name="Noise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Horaire</t>
   </si>
@@ -37,6 +39,55 @@
   </si>
   <si>
     <t>anssi</t>
+  </si>
+  <si>
+    <t>L'ANSSI a été informée ce matin d'un incident de grande ampleur l'échelle nationale. Les équipes sont
+pleinement mobilisées pour qualifier l'origine de
+l'incident.</t>
+  </si>
+  <si>
+    <t>Editeur EDR</t>
+  </si>
+  <si>
+    <t>Nous confirmons qu'une attaque cyber est en cours d'investigation et qu'elle pourrait avoir un lien avec les évènements exceptionnels de la matinée.
+Nous préconisons à tous les systèmes d'informations qui disposent de notre solution et qui sont restés sains, de ne mettre a jour leur antivirus sous aucun prétexte et de le désactiver chaque fois que cela est possible.</t>
+  </si>
+  <si>
+    <t>Une vulnérabilité majeure a été détectée dans
+⚠️ Antivirus/EDR. Cette dernière est massivement exploitée par des cybercriminels. La cyberattaque touche des organisations à travers l'ensemble du territoire national.</t>
+  </si>
+  <si>
+    <t>⚠️ Le paiement d'une rançon ne garantit en aucun cas le rétablissement des services ou la non-divulgation des données. Elle fait cependant le jeu des attaquants.
+En cas de compromission, utilisez les ressources du
+CERT-FR :
+- Qualification
+https://www.cert.ssi.gouv.fr/fiche/
+CERTFR-2024-RFX-005/
+- Endiguement
+: https://www.cert.ssi.gouv.fr/fiche/
+CERTFR-2024-RFX-006/
+- Fiches Réflexes https://cert.ssi.gouv.fr/fiche/page/1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malgré les investigations poussées entreprises dès les premières heures, nous ne pouvons garantir l'innocuité de nos systemes.
+Nous mettons tout en œuvre pour rétablir nos services dans les meilleurs délais et vous assurons du
+dévouement total de nos équipes face à cette attaque imprévisible à laquelle nous devons tous ensemble faire face.
+Malgré les investigations poussées entreprises dès les premières heures, nous ne pouvons garantir l'innocuité de nos systemes.
+Nous mettons tout en œuvre pour rétablir nos services dans les meilleurs délais et vous assurons du
+dévouement total de nos équipes face à cette attaque imprévisible à laquelle nous devons tous ensemble faire face.
+Malgré les investigations poussées entreprises dès les premières heures, nous ne pouvons garantir l'innocuité de nos systemes.
+Nous mettons tout en œuvre pour rétablir nos services dans les meilleurs délais et vous assurons du
+dévouement total de nos équipes face à cette attaque imprévisible à laquelle nous devons tous ensemble faire face.
+</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>aléatoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est la fin du monde </t>
   </si>
 </sst>
 </file>
@@ -380,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -413,7 +464,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2CC550-3361-F440-A3D2-A0AAB1B54086}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55914EBD-9F09-D94F-ABA9-D6160316DCEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sample/PMS.xlsx
+++ b/Sample/PMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julien.mousqueton@cohesity.com/Code/Murail/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D6C1E-F7B4-734B-83C9-284DFD44DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD7C6B-76AF-C14B-A799-2E33A6F760A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,10 +529,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
